--- a/Philibosian_Meltzner.xlsx
+++ b/Philibosian_Meltzner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adminalba/Documents/Paleoseismology compilation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4056A9-18F3-CA47-9B02-37F57A2874CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333630A2-E069-544C-8EB4-784D4D3FC3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57000" yWindow="500" windowWidth="24300" windowHeight="21100" xr2:uid="{0C72CEA8-103F-664E-BFC3-8082C479B46F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{0C72CEA8-103F-664E-BFC3-8082C479B46F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,17 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="139">
   <si>
     <t>Year</t>
   </si>
   <si>
-    <t>N lat</t>
-  </si>
-  <si>
-    <t>S lat</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -405,13 +399,67 @@
   </si>
   <si>
     <t>Kubo et al., 2013</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bilham (2004); Ambraseys and Douglas (2004); Bilham and Ambraseys (2005); Bollinger et al. (2016) </t>
+  </si>
+  <si>
+    <t>Dal Zilio et al. 2020</t>
+  </si>
+  <si>
+    <t>Himalaya</t>
+  </si>
+  <si>
+    <t>Delwi-Haridwar</t>
+  </si>
+  <si>
+    <t>Lon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bilham (2004); Ambraseys and Douglas (2004) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Het ́enyi et al. (2016); Le Roux-Mallouf et al. (2016) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambraseys and Jackson (2003); Bilham (2004) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wallace et al. (2005); Hough and Bilham (2008); Ambraseys and Dou- glas (2004) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S. Sapkota et al. (2013); S. N. Sapkota et al. (2016); Hough and Bilham (2008) </t>
+  </si>
+  <si>
+    <t>Khattri (1987); Bilham (2004)</t>
+  </si>
+  <si>
+    <t>Avouac et al. (2015); Duputel et al. (2016); Galetzka et al. (2015); Lindsey et al. 2015</t>
+  </si>
+  <si>
+    <t>Faizabad</t>
+  </si>
+  <si>
+    <t>Munger-Saharsa</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Type_lat_lon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -431,6 +479,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="CMR9"/>
     </font>
   </fonts>
   <fills count="2">
@@ -453,9 +506,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -770,46 +824,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2C05D8-0418-284A-9032-08A034BF23B3}">
-  <dimension ref="A1:H189"/>
+  <dimension ref="A1:I199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E196" sqref="E196"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
-    <col min="5" max="6" width="19.83203125" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="6" max="7" width="19.83203125" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1394</v>
       </c>
@@ -819,20 +876,20 @@
       <c r="C2">
         <v>2.5</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>1450</v>
       </c>
@@ -842,20 +899,23 @@
       <c r="C3">
         <v>2.5</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
+      <c r="D3" t="s">
+        <v>121</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>1660</v>
       </c>
@@ -865,20 +925,23 @@
       <c r="C4">
         <v>3.5</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
+      <c r="D4" t="s">
+        <v>121</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>1679</v>
       </c>
@@ -888,20 +951,23 @@
       <c r="C5">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
-        <v>10</v>
+      <c r="D5" t="s">
+        <v>121</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>1847</v>
       </c>
@@ -911,20 +977,23 @@
       <c r="C6">
         <v>6.6</v>
       </c>
-      <c r="E6" t="s">
-        <v>11</v>
+      <c r="D6" t="s">
+        <v>121</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>1881</v>
       </c>
@@ -934,20 +1003,23 @@
       <c r="C7">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E7" t="s">
-        <v>12</v>
+      <c r="D7" t="s">
+        <v>121</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>1941</v>
       </c>
@@ -957,20 +1029,23 @@
       <c r="C8">
         <v>11.4</v>
       </c>
-      <c r="E8" t="s">
-        <v>13</v>
+      <c r="D8" t="s">
+        <v>121</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>2004</v>
       </c>
@@ -981,22 +1056,25 @@
         <v>2.5</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>2002</v>
       </c>
@@ -1006,20 +1084,23 @@
       <c r="C10">
         <v>2.4</v>
       </c>
-      <c r="E10" t="s">
-        <v>17</v>
+      <c r="D10" t="s">
+        <v>121</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>2008</v>
       </c>
@@ -1029,20 +1110,23 @@
       <c r="C11">
         <v>2.5</v>
       </c>
-      <c r="E11" t="s">
-        <v>17</v>
+      <c r="D11" t="s">
+        <v>121</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="H11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>1422</v>
       </c>
@@ -1052,20 +1136,23 @@
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="E12" t="s">
-        <v>22</v>
+      <c r="D12" t="s">
+        <v>121</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="H12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>1580</v>
       </c>
@@ -1073,22 +1160,25 @@
         <v>2.7</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>121</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="H13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>1843</v>
       </c>
@@ -1098,20 +1188,23 @@
       <c r="C14">
         <v>0.8</v>
       </c>
-      <c r="E14" t="s">
-        <v>23</v>
+      <c r="D14" t="s">
+        <v>121</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="H14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>1861</v>
       </c>
@@ -1121,20 +1214,23 @@
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="E15" t="s">
-        <v>23</v>
+      <c r="D15" t="s">
+        <v>121</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="H15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>1907</v>
       </c>
@@ -1145,22 +1241,25 @@
         <v>0.5</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="H16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="I16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>2005</v>
       </c>
@@ -1170,20 +1269,23 @@
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="E17" t="s">
-        <v>25</v>
+      <c r="D17" t="s">
+        <v>121</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="H17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="I17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>2010</v>
       </c>
@@ -1194,22 +1296,25 @@
         <v>1.7</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="H18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="I18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>1935</v>
       </c>
@@ -1219,20 +1324,23 @@
       <c r="C19">
         <v>-0.5</v>
       </c>
-      <c r="E19" t="s">
-        <v>28</v>
+      <c r="D19" t="s">
+        <v>121</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="H19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="I19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>1984</v>
       </c>
@@ -1242,20 +1350,23 @@
       <c r="C20">
         <v>5</v>
       </c>
-      <c r="E20" t="s">
-        <v>29</v>
+      <c r="D20" t="s">
+        <v>121</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="G20" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="H20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="I20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>1314</v>
       </c>
@@ -1266,22 +1377,25 @@
         <v>-3.6</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>1350</v>
       </c>
@@ -1291,20 +1405,23 @@
       <c r="C22">
         <v>-4.5</v>
       </c>
-      <c r="E22" t="s">
-        <v>32</v>
+      <c r="D22" t="s">
+        <v>121</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>1390</v>
       </c>
@@ -1314,20 +1431,23 @@
       <c r="C23">
         <v>-3.5</v>
       </c>
-      <c r="E23" t="s">
-        <v>32</v>
+      <c r="D23" t="s">
+        <v>121</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>1597</v>
       </c>
@@ -1337,20 +1457,23 @@
       <c r="C24">
         <v>-3.5</v>
       </c>
-      <c r="E24" t="s">
-        <v>33</v>
+      <c r="D24" t="s">
+        <v>121</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>1613</v>
       </c>
@@ -1360,20 +1483,23 @@
       <c r="C25">
         <v>-3.7</v>
       </c>
-      <c r="E25" t="s">
-        <v>33</v>
+      <c r="D25" t="s">
+        <v>121</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>1631</v>
       </c>
@@ -1384,22 +1510,25 @@
         <v>-4</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>1658</v>
       </c>
@@ -1409,20 +1538,23 @@
       <c r="C27">
         <v>-2.5</v>
       </c>
-      <c r="E27" t="s">
-        <v>33</v>
+      <c r="D27" t="s">
+        <v>121</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>1703</v>
       </c>
@@ -1432,20 +1564,23 @@
       <c r="C28">
         <v>-4.5</v>
       </c>
-      <c r="E28" t="s">
-        <v>33</v>
+      <c r="D28" t="s">
+        <v>121</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>1797</v>
       </c>
@@ -1455,20 +1590,23 @@
       <c r="C29">
         <v>-3.4</v>
       </c>
-      <c r="E29" t="s">
-        <v>34</v>
+      <c r="D29" t="s">
+        <v>121</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>1833</v>
       </c>
@@ -1478,20 +1616,23 @@
       <c r="C30">
         <v>-4.5</v>
       </c>
-      <c r="E30" t="s">
-        <v>34</v>
+      <c r="D30" t="s">
+        <v>121</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>2007</v>
       </c>
@@ -1501,20 +1642,23 @@
       <c r="C31">
         <v>-4.5</v>
       </c>
-      <c r="E31" t="s">
-        <v>35</v>
+      <c r="D31" t="s">
+        <v>121</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>2007</v>
       </c>
@@ -1525,22 +1669,25 @@
         <v>-2.8</v>
       </c>
       <c r="D32" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="I32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>2007</v>
       </c>
@@ -1551,22 +1698,25 @@
         <v>-2</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>2008</v>
       </c>
@@ -1576,20 +1726,23 @@
       <c r="C34">
         <v>-2.7</v>
       </c>
-      <c r="E34" t="s">
-        <v>38</v>
+      <c r="D34" t="s">
+        <v>121</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G34" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="I34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>2010</v>
       </c>
@@ -1600,22 +1753,25 @@
         <v>-4</v>
       </c>
       <c r="D35" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G35" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="I35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>2000</v>
       </c>
@@ -1625,20 +1781,23 @@
       <c r="C36">
         <v>-5.7</v>
       </c>
-      <c r="E36" t="s">
+      <c r="D36" t="s">
+        <v>121</v>
+      </c>
+      <c r="F36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" t="s">
         <v>41</v>
       </c>
-      <c r="F36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G36" t="s">
-        <v>40</v>
-      </c>
       <c r="H36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="I36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>1896</v>
       </c>
@@ -1648,20 +1807,23 @@
       <c r="C37">
         <v>-0.5</v>
       </c>
-      <c r="E37" t="s">
-        <v>44</v>
+      <c r="D37" t="s">
+        <v>121</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G37" t="s">
         <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="I37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>1906</v>
       </c>
@@ -1671,20 +1833,23 @@
       <c r="C38">
         <v>0</v>
       </c>
-      <c r="E38" t="s">
-        <v>46</v>
+      <c r="D38" t="s">
+        <v>121</v>
       </c>
       <c r="F38" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G38" t="s">
         <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="I38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>1942</v>
       </c>
@@ -1694,20 +1859,23 @@
       <c r="C39">
         <v>0</v>
       </c>
-      <c r="E39" t="s">
-        <v>44</v>
+      <c r="D39" t="s">
+        <v>121</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="I39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>1956</v>
       </c>
@@ -1717,20 +1885,23 @@
       <c r="C40">
         <v>-0.5</v>
       </c>
-      <c r="E40" t="s">
-        <v>44</v>
+      <c r="D40" t="s">
+        <v>121</v>
       </c>
       <c r="F40" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G40" t="s">
         <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="I40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>1958</v>
       </c>
@@ -1740,20 +1911,23 @@
       <c r="C41">
         <v>1.2</v>
       </c>
-      <c r="E41" t="s">
-        <v>44</v>
+      <c r="D41" t="s">
+        <v>121</v>
       </c>
       <c r="F41" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s">
         <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="I41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>1979</v>
       </c>
@@ -1763,20 +1937,23 @@
       <c r="C42">
         <v>1.7</v>
       </c>
-      <c r="E42" t="s">
-        <v>44</v>
+      <c r="D42" t="s">
+        <v>121</v>
       </c>
       <c r="F42" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s">
         <v>45</v>
       </c>
       <c r="H42" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="I42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>1998</v>
       </c>
@@ -1786,20 +1963,23 @@
       <c r="C43">
         <v>-0.6</v>
       </c>
-      <c r="E43" t="s">
-        <v>44</v>
+      <c r="D43" t="s">
+        <v>121</v>
       </c>
       <c r="F43" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s">
         <v>45</v>
       </c>
       <c r="H43" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="I43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>2016</v>
       </c>
@@ -1809,20 +1989,23 @@
       <c r="C44">
         <v>-0.5</v>
       </c>
-      <c r="E44" t="s">
-        <v>48</v>
+      <c r="D44" t="s">
+        <v>121</v>
       </c>
       <c r="F44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G44" t="s">
         <v>45</v>
       </c>
       <c r="H44" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="I44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>1619</v>
       </c>
@@ -1832,20 +2015,23 @@
       <c r="C45">
         <v>-8.5</v>
       </c>
-      <c r="E45" t="s">
-        <v>60</v>
+      <c r="D45" t="s">
+        <v>121</v>
       </c>
       <c r="F45" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="G45" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="I45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>1953</v>
       </c>
@@ -1855,20 +2041,23 @@
       <c r="C46">
         <v>-4.5</v>
       </c>
-      <c r="E46" t="s">
-        <v>61</v>
+      <c r="D46" t="s">
+        <v>121</v>
       </c>
       <c r="F46" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G46" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="I46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>1959</v>
       </c>
@@ -1878,20 +2067,23 @@
       <c r="C47">
         <v>-5</v>
       </c>
-      <c r="E47" t="s">
-        <v>61</v>
+      <c r="D47" t="s">
+        <v>121</v>
       </c>
       <c r="F47" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G47" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="I47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>1960</v>
       </c>
@@ -1902,22 +2094,25 @@
         <v>-7.5</v>
       </c>
       <c r="D48" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="E48" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="F48" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G48" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="I48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>1996</v>
       </c>
@@ -1928,22 +2123,25 @@
         <v>-10.199999999999999</v>
       </c>
       <c r="D49" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="E49" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="F49" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G49" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="I49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>1586</v>
       </c>
@@ -1953,20 +2151,23 @@
       <c r="C50">
         <v>-13.7</v>
       </c>
-      <c r="E50" t="s">
-        <v>63</v>
+      <c r="D50" t="s">
+        <v>121</v>
       </c>
       <c r="F50" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="G50" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="H50" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="I50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>1664</v>
       </c>
@@ -1976,20 +2177,23 @@
       <c r="C51">
         <v>-14.8</v>
       </c>
-      <c r="E51" t="s">
-        <v>63</v>
+      <c r="D51" t="s">
+        <v>121</v>
       </c>
       <c r="F51" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="G51" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="I51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>1678</v>
       </c>
@@ -1999,20 +2203,23 @@
       <c r="C52">
         <v>-11.5</v>
       </c>
-      <c r="E52" t="s">
-        <v>63</v>
+      <c r="D52" t="s">
+        <v>121</v>
       </c>
       <c r="F52" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="G52" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="H52" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="I52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>1687</v>
       </c>
@@ -2022,20 +2229,23 @@
       <c r="C53">
         <v>-15.2</v>
       </c>
-      <c r="E53" t="s">
-        <v>63</v>
+      <c r="D53" t="s">
+        <v>121</v>
       </c>
       <c r="F53" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="G53" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="H53" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="I53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>1746</v>
       </c>
@@ -2045,20 +2255,23 @@
       <c r="C54">
         <v>-13.5</v>
       </c>
-      <c r="E54" t="s">
-        <v>63</v>
+      <c r="D54" t="s">
+        <v>121</v>
       </c>
       <c r="F54" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="G54" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="H54" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="I54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>1940</v>
       </c>
@@ -2068,20 +2281,23 @@
       <c r="C55">
         <v>-11.5</v>
       </c>
-      <c r="E55" t="s">
+      <c r="D55" t="s">
+        <v>121</v>
+      </c>
+      <c r="F55" t="s">
+        <v>60</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
         <v>62</v>
       </c>
-      <c r="F55" t="s">
-        <v>47</v>
-      </c>
-      <c r="G55" t="s">
-        <v>64</v>
-      </c>
-      <c r="H55" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>1966</v>
       </c>
@@ -2091,20 +2307,23 @@
       <c r="C56">
         <v>-11.2</v>
       </c>
-      <c r="E56" t="s">
+      <c r="D56" t="s">
+        <v>121</v>
+      </c>
+      <c r="F56" t="s">
+        <v>60</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
         <v>62</v>
       </c>
-      <c r="F56" t="s">
-        <v>47</v>
-      </c>
-      <c r="G56" t="s">
-        <v>64</v>
-      </c>
-      <c r="H56" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>1974</v>
       </c>
@@ -2114,20 +2333,23 @@
       <c r="C57">
         <v>-13.5</v>
       </c>
-      <c r="E57" t="s">
+      <c r="D57" t="s">
+        <v>121</v>
+      </c>
+      <c r="F57" t="s">
+        <v>60</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
         <v>62</v>
       </c>
-      <c r="F57" t="s">
-        <v>47</v>
-      </c>
-      <c r="G57" t="s">
-        <v>64</v>
-      </c>
-      <c r="H57" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58">
         <v>2007</v>
       </c>
@@ -2137,20 +2359,23 @@
       <c r="C58">
         <v>-14</v>
       </c>
-      <c r="E58" t="s">
+      <c r="D58" t="s">
+        <v>121</v>
+      </c>
+      <c r="F58" t="s">
+        <v>60</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
         <v>62</v>
       </c>
-      <c r="F58" t="s">
-        <v>47</v>
-      </c>
-      <c r="G58" t="s">
-        <v>64</v>
-      </c>
-      <c r="H58" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59">
         <v>1582</v>
       </c>
@@ -2160,20 +2385,23 @@
       <c r="C59">
         <v>-17</v>
       </c>
-      <c r="E59" t="s">
+      <c r="D59" t="s">
+        <v>121</v>
+      </c>
+      <c r="F59" t="s">
+        <v>61</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
         <v>63</v>
       </c>
-      <c r="F59" t="s">
-        <v>47</v>
-      </c>
-      <c r="G59" t="s">
-        <v>65</v>
-      </c>
-      <c r="H59" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60">
         <v>1604</v>
       </c>
@@ -2183,20 +2411,23 @@
       <c r="C60">
         <v>-18.2</v>
       </c>
-      <c r="E60" t="s">
+      <c r="D60" t="s">
+        <v>121</v>
+      </c>
+      <c r="F60" t="s">
+        <v>61</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
         <v>63</v>
       </c>
-      <c r="F60" t="s">
-        <v>47</v>
-      </c>
-      <c r="G60" t="s">
-        <v>65</v>
-      </c>
-      <c r="H60" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61">
         <v>1687</v>
       </c>
@@ -2206,20 +2437,23 @@
       <c r="C61">
         <v>-17.5</v>
       </c>
-      <c r="E61" t="s">
+      <c r="D61" t="s">
+        <v>121</v>
+      </c>
+      <c r="F61" t="s">
+        <v>61</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
         <v>63</v>
       </c>
-      <c r="F61" t="s">
-        <v>47</v>
-      </c>
-      <c r="G61" t="s">
-        <v>65</v>
-      </c>
-      <c r="H61" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62">
         <v>1715</v>
       </c>
@@ -2229,20 +2463,23 @@
       <c r="C62">
         <v>-18</v>
       </c>
-      <c r="E62" t="s">
+      <c r="D62" t="s">
+        <v>121</v>
+      </c>
+      <c r="F62" t="s">
+        <v>61</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
         <v>63</v>
       </c>
-      <c r="F62" t="s">
-        <v>47</v>
-      </c>
-      <c r="G62" t="s">
-        <v>65</v>
-      </c>
-      <c r="H62" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63">
         <v>1784</v>
       </c>
@@ -2252,20 +2489,23 @@
       <c r="C63">
         <v>-18</v>
       </c>
-      <c r="E63" t="s">
+      <c r="D63" t="s">
+        <v>121</v>
+      </c>
+      <c r="F63" t="s">
+        <v>61</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
         <v>63</v>
       </c>
-      <c r="F63" t="s">
-        <v>47</v>
-      </c>
-      <c r="G63" t="s">
-        <v>65</v>
-      </c>
-      <c r="H63" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64">
         <v>1868</v>
       </c>
@@ -2275,20 +2515,23 @@
       <c r="C64">
         <v>-18.5</v>
       </c>
-      <c r="E64" t="s">
+      <c r="D64" t="s">
+        <v>121</v>
+      </c>
+      <c r="F64" t="s">
+        <v>61</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
         <v>63</v>
       </c>
-      <c r="F64" t="s">
-        <v>47</v>
-      </c>
-      <c r="G64" t="s">
-        <v>65</v>
-      </c>
-      <c r="H64" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65">
         <v>1942</v>
       </c>
@@ -2298,20 +2541,23 @@
       <c r="C65">
         <v>-15.8</v>
       </c>
-      <c r="E65" t="s">
-        <v>62</v>
+      <c r="D65" t="s">
+        <v>121</v>
       </c>
       <c r="F65" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G65" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="H65" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="I65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66">
         <v>1996</v>
       </c>
@@ -2321,20 +2567,23 @@
       <c r="C66">
         <v>-15.5</v>
       </c>
-      <c r="E66" t="s">
-        <v>62</v>
+      <c r="D66" t="s">
+        <v>121</v>
       </c>
       <c r="F66" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G66" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="H66" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="I66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67">
         <v>2001</v>
       </c>
@@ -2344,20 +2593,23 @@
       <c r="C67">
         <v>-17.2</v>
       </c>
-      <c r="E67" t="s">
-        <v>62</v>
+      <c r="D67" t="s">
+        <v>121</v>
       </c>
       <c r="F67" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G67" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="H67" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="I67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68">
         <v>2001</v>
       </c>
@@ -2367,20 +2619,23 @@
       <c r="C68">
         <v>-18</v>
       </c>
-      <c r="E68" t="s">
-        <v>62</v>
+      <c r="D68" t="s">
+        <v>121</v>
       </c>
       <c r="F68" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G68" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="H68" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="I68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69">
         <v>1615</v>
       </c>
@@ -2390,20 +2645,23 @@
       <c r="C69">
         <v>-20</v>
       </c>
-      <c r="E69" t="s">
-        <v>69</v>
+      <c r="D69" t="s">
+        <v>121</v>
       </c>
       <c r="F69" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="G69" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="H69" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="I69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70">
         <v>1681</v>
       </c>
@@ -2413,20 +2671,23 @@
       <c r="C70">
         <v>-19</v>
       </c>
-      <c r="E70" t="s">
-        <v>69</v>
+      <c r="D70" t="s">
+        <v>121</v>
       </c>
       <c r="F70" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="G70" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="H70" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="I70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71">
         <v>1768</v>
       </c>
@@ -2436,20 +2697,23 @@
       <c r="C71">
         <v>-21.5</v>
       </c>
-      <c r="E71" t="s">
-        <v>69</v>
+      <c r="D71" t="s">
+        <v>121</v>
       </c>
       <c r="F71" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="G71" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="H71" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="I71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72">
         <v>1833</v>
       </c>
@@ -2459,20 +2723,23 @@
       <c r="C72">
         <v>-19.399999999999999</v>
       </c>
-      <c r="E72" t="s">
-        <v>70</v>
+      <c r="D72" t="s">
+        <v>121</v>
       </c>
       <c r="F72" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="G72" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="H72" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="I72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73">
         <v>1836</v>
       </c>
@@ -2482,20 +2749,23 @@
       <c r="C73">
         <v>-22.5</v>
       </c>
-      <c r="E73" t="s">
-        <v>69</v>
+      <c r="D73" t="s">
+        <v>121</v>
       </c>
       <c r="F73" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="G73" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="H73" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="I73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74">
         <v>1869</v>
       </c>
@@ -2505,20 +2775,23 @@
       <c r="C74">
         <v>-20</v>
       </c>
-      <c r="E74" t="s">
-        <v>69</v>
+      <c r="D74" t="s">
+        <v>121</v>
       </c>
       <c r="F74" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="G74" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="H74" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="I74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75">
         <v>1871</v>
       </c>
@@ -2528,20 +2801,23 @@
       <c r="C75">
         <v>-20.7</v>
       </c>
-      <c r="E75" t="s">
-        <v>69</v>
+      <c r="D75" t="s">
+        <v>121</v>
       </c>
       <c r="F75" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="G75" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="H75" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="I75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76">
         <v>1877</v>
       </c>
@@ -2551,20 +2827,23 @@
       <c r="C76">
         <v>-23</v>
       </c>
-      <c r="E76" t="s">
-        <v>69</v>
+      <c r="D76" t="s">
+        <v>121</v>
       </c>
       <c r="F76" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="G76" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="H76" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="I76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77">
         <v>1933</v>
       </c>
@@ -2574,20 +2853,23 @@
       <c r="C77">
         <v>-20.5</v>
       </c>
-      <c r="E77" t="s">
-        <v>69</v>
+      <c r="D77" t="s">
+        <v>121</v>
       </c>
       <c r="F77" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="G77" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="H77" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="I77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78">
         <v>2007</v>
       </c>
@@ -2597,20 +2879,23 @@
       <c r="C78">
         <v>-23.2</v>
       </c>
-      <c r="E78" t="s">
-        <v>62</v>
+      <c r="D78" t="s">
+        <v>121</v>
       </c>
       <c r="F78" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G78" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="H78" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="I78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79">
         <v>2014</v>
       </c>
@@ -2620,20 +2905,23 @@
       <c r="C79">
         <v>-20.3</v>
       </c>
-      <c r="E79" t="s">
-        <v>71</v>
+      <c r="D79" t="s">
+        <v>121</v>
       </c>
       <c r="F79" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="G79" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="H79" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="I79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80">
         <v>2014</v>
       </c>
@@ -2643,20 +2931,23 @@
       <c r="C80">
         <v>-20.7</v>
       </c>
-      <c r="E80" t="s">
-        <v>71</v>
+      <c r="D80" t="s">
+        <v>121</v>
       </c>
       <c r="F80" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="G80" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="H80" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="I80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81">
         <v>1995</v>
       </c>
@@ -2666,20 +2957,23 @@
       <c r="C81">
         <v>-25</v>
       </c>
-      <c r="E81" t="s">
-        <v>62</v>
+      <c r="D81" t="s">
+        <v>121</v>
       </c>
       <c r="F81" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G81" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="H81" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="I81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82">
         <v>1796</v>
       </c>
@@ -2690,22 +2984,25 @@
         <v>-28.5</v>
       </c>
       <c r="D82" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="E82" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F82" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="G82" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="H82" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="I82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83">
         <v>1819</v>
       </c>
@@ -2716,22 +3013,25 @@
         <v>-30</v>
       </c>
       <c r="D83" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="E83" t="s">
         <v>74</v>
       </c>
       <c r="F83" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="G83" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="H83" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="I83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84">
         <v>1918</v>
       </c>
@@ -2741,20 +3041,23 @@
       <c r="C84">
         <v>-26.5</v>
       </c>
-      <c r="E84" t="s">
-        <v>74</v>
+      <c r="D84" t="s">
+        <v>121</v>
       </c>
       <c r="F84" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="G84" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="H84" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="I84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85">
         <v>1922</v>
       </c>
@@ -2764,20 +3067,23 @@
       <c r="C85">
         <v>-30.2</v>
       </c>
-      <c r="E85" t="s">
-        <v>74</v>
+      <c r="D85" t="s">
+        <v>121</v>
       </c>
       <c r="F85" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="G85" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="H85" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="I85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86">
         <v>1575</v>
       </c>
@@ -2787,20 +3093,23 @@
       <c r="C86">
         <v>-34</v>
       </c>
-      <c r="E86" t="s">
-        <v>74</v>
+      <c r="D86" t="s">
+        <v>121</v>
       </c>
       <c r="F86" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="G86" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="H86" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="I86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87">
         <v>1647</v>
       </c>
@@ -2810,20 +3119,23 @@
       <c r="C87">
         <v>-35</v>
       </c>
-      <c r="E87" t="s">
-        <v>74</v>
+      <c r="D87" t="s">
+        <v>121</v>
       </c>
       <c r="F87" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="G87" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="H87" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="I87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88">
         <v>1730</v>
       </c>
@@ -2833,20 +3145,23 @@
       <c r="C88">
         <v>-36</v>
       </c>
-      <c r="E88" t="s">
-        <v>74</v>
+      <c r="D88" t="s">
+        <v>121</v>
       </c>
       <c r="F88" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="G88" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="H88" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="I88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89">
         <v>1822</v>
       </c>
@@ -2856,20 +3171,23 @@
       <c r="C89">
         <v>-33.700000000000003</v>
       </c>
-      <c r="E89" t="s">
-        <v>74</v>
+      <c r="D89" t="s">
+        <v>121</v>
       </c>
       <c r="F89" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="G89" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="H89" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="I89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90">
         <v>1851</v>
       </c>
@@ -2879,20 +3197,23 @@
       <c r="C90">
         <v>-33.700000000000003</v>
       </c>
-      <c r="E90" t="s">
-        <v>74</v>
+      <c r="D90" t="s">
+        <v>121</v>
       </c>
       <c r="F90" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="G90" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="H90" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="I90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91">
         <v>1873</v>
       </c>
@@ -2902,20 +3223,23 @@
       <c r="C91">
         <v>-33</v>
       </c>
-      <c r="E91" t="s">
-        <v>74</v>
+      <c r="D91" t="s">
+        <v>121</v>
       </c>
       <c r="F91" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="G91" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="H91" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="I91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92">
         <v>1880</v>
       </c>
@@ -2925,20 +3249,23 @@
       <c r="C92">
         <v>-32</v>
       </c>
-      <c r="E92" t="s">
-        <v>74</v>
+      <c r="D92" t="s">
+        <v>121</v>
       </c>
       <c r="F92" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="G92" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="H92" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="I92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93">
         <v>1906</v>
       </c>
@@ -2948,20 +3275,23 @@
       <c r="C93">
         <v>-35</v>
       </c>
-      <c r="E93" t="s">
-        <v>74</v>
+      <c r="D93" t="s">
+        <v>121</v>
       </c>
       <c r="F93" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="G93" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="H93" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="I93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94">
         <v>1943</v>
       </c>
@@ -2971,20 +3301,23 @@
       <c r="C94">
         <v>-32</v>
       </c>
-      <c r="E94" t="s">
-        <v>74</v>
+      <c r="D94" t="s">
+        <v>121</v>
       </c>
       <c r="F94" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="G94" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="H94" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="I94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95">
         <v>1971</v>
       </c>
@@ -2994,20 +3327,23 @@
       <c r="C95">
         <v>-33</v>
       </c>
-      <c r="E95" t="s">
-        <v>74</v>
+      <c r="D95" t="s">
+        <v>121</v>
       </c>
       <c r="F95" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="G95" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="H95" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="I95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96">
         <v>1985</v>
       </c>
@@ -3017,20 +3353,23 @@
       <c r="C96">
         <v>-34.5</v>
       </c>
-      <c r="E96" t="s">
-        <v>74</v>
+      <c r="D96" t="s">
+        <v>121</v>
       </c>
       <c r="F96" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="G96" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="H96" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="I96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97">
         <v>2015</v>
       </c>
@@ -3040,20 +3379,23 @@
       <c r="C97">
         <v>-32</v>
       </c>
-      <c r="E97" t="s">
-        <v>78</v>
+      <c r="D97" t="s">
+        <v>121</v>
       </c>
       <c r="F97" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="G97" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="H97" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="I97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98">
         <v>1570</v>
       </c>
@@ -3063,20 +3405,23 @@
       <c r="C98">
         <v>-38</v>
       </c>
-      <c r="E98" t="s">
-        <v>80</v>
+      <c r="D98" t="s">
+        <v>121</v>
       </c>
       <c r="F98" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="G98" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="H98" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="I98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99">
         <v>1657</v>
       </c>
@@ -3086,20 +3431,23 @@
       <c r="C99">
         <v>-38.5</v>
       </c>
-      <c r="E99" t="s">
-        <v>80</v>
+      <c r="D99" t="s">
+        <v>121</v>
       </c>
       <c r="F99" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="G99" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="H99" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="I99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100">
         <v>1751</v>
       </c>
@@ -3109,20 +3457,23 @@
       <c r="C100">
         <v>-39</v>
       </c>
-      <c r="E100" t="s">
-        <v>80</v>
+      <c r="D100" t="s">
+        <v>121</v>
       </c>
       <c r="F100" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="G100" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="H100" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="I100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101">
         <v>1835</v>
       </c>
@@ -3132,20 +3483,23 @@
       <c r="C101">
         <v>-38.5</v>
       </c>
-      <c r="E101" t="s">
-        <v>80</v>
+      <c r="D101" t="s">
+        <v>121</v>
       </c>
       <c r="F101" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="G101" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="H101" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="I101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102">
         <v>1928</v>
       </c>
@@ -3155,20 +3509,23 @@
       <c r="C102">
         <v>-36</v>
       </c>
-      <c r="E102" t="s">
-        <v>74</v>
+      <c r="D102" t="s">
+        <v>121</v>
       </c>
       <c r="F102" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="G102" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="H102" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="I102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103">
         <v>1960</v>
       </c>
@@ -3178,20 +3535,23 @@
       <c r="C103">
         <v>-38</v>
       </c>
-      <c r="E103" t="s">
-        <v>80</v>
+      <c r="D103" t="s">
+        <v>121</v>
       </c>
       <c r="F103" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="G103" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="H103" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="I103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104">
         <v>2010</v>
       </c>
@@ -3201,20 +3561,23 @@
       <c r="C104">
         <v>-38.5</v>
       </c>
-      <c r="E104" t="s">
-        <v>81</v>
+      <c r="D104" t="s">
+        <v>121</v>
       </c>
       <c r="F104" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="G104" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="H104" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="I104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105">
         <v>1575</v>
       </c>
@@ -3225,22 +3588,25 @@
         <v>-46</v>
       </c>
       <c r="D105" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="E105" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="G105" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="H105" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="I105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106">
         <v>1737</v>
       </c>
@@ -3251,22 +3617,25 @@
         <v>-46</v>
       </c>
       <c r="D106" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="E106" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="F106" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="G106" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="H106" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="I106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107">
         <v>1837</v>
       </c>
@@ -3277,22 +3646,25 @@
         <v>-46</v>
       </c>
       <c r="D107" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="E107" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="G107" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="H107" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="I107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108">
         <v>1960</v>
       </c>
@@ -3303,22 +3675,25 @@
         <v>-46</v>
       </c>
       <c r="D108" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="E108" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" t="s">
+        <v>78</v>
+      </c>
+      <c r="G108" t="s">
+        <v>45</v>
+      </c>
+      <c r="H108" t="s">
         <v>80</v>
       </c>
-      <c r="F108" t="s">
-        <v>47</v>
-      </c>
-      <c r="G108" t="s">
-        <v>82</v>
-      </c>
-      <c r="H108" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109">
         <v>2016</v>
       </c>
@@ -3328,20 +3703,23 @@
       <c r="C109">
         <v>-43.8</v>
       </c>
-      <c r="E109" t="s">
-        <v>83</v>
+      <c r="D109" t="s">
+        <v>121</v>
       </c>
       <c r="F109" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="G109" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="H109" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="I109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110">
         <v>684</v>
       </c>
@@ -3351,20 +3729,23 @@
       <c r="C110">
         <v>138.6</v>
       </c>
-      <c r="E110" t="s">
-        <v>87</v>
+      <c r="D110" t="s">
+        <v>121</v>
       </c>
       <c r="F110" t="s">
         <v>85</v>
       </c>
       <c r="G110" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H110" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="I110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111">
         <v>887</v>
       </c>
@@ -3374,20 +3755,23 @@
       <c r="C111">
         <v>138.6</v>
       </c>
-      <c r="E111" t="s">
-        <v>87</v>
+      <c r="D111" t="s">
+        <v>121</v>
       </c>
       <c r="F111" t="s">
         <v>85</v>
       </c>
       <c r="G111" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H111" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="I111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112">
         <v>1096</v>
       </c>
@@ -3397,20 +3781,23 @@
       <c r="C112">
         <v>138.30000000000001</v>
       </c>
-      <c r="E112" t="s">
-        <v>88</v>
+      <c r="D112" t="s">
+        <v>121</v>
       </c>
       <c r="F112" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G112" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H112" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="I112" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113">
         <v>1099</v>
       </c>
@@ -3420,20 +3807,23 @@
       <c r="C113">
         <v>135.9</v>
       </c>
-      <c r="E113" t="s">
-        <v>88</v>
+      <c r="D113" t="s">
+        <v>121</v>
       </c>
       <c r="F113" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G113" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H113" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="I113" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114">
         <v>1361</v>
       </c>
@@ -3443,20 +3833,23 @@
       <c r="C114">
         <v>138.6</v>
       </c>
-      <c r="E114" t="s">
-        <v>88</v>
+      <c r="D114" t="s">
+        <v>121</v>
       </c>
       <c r="F114" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G114" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H114" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="I114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115">
         <v>1498</v>
       </c>
@@ -3466,20 +3859,23 @@
       <c r="C115">
         <v>138.6</v>
       </c>
-      <c r="E115" t="s">
-        <v>88</v>
+      <c r="D115" t="s">
+        <v>121</v>
       </c>
       <c r="F115" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G115" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H115" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="I115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116">
         <v>1605</v>
       </c>
@@ -3490,22 +3886,25 @@
         <v>138.30000000000001</v>
       </c>
       <c r="D116" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="E116" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="F116" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G116" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H116" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="I116" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117">
         <v>1662</v>
       </c>
@@ -3515,20 +3914,23 @@
       <c r="C117">
         <v>132.69999999999999</v>
       </c>
-      <c r="E117" t="s">
-        <v>90</v>
+      <c r="D117" t="s">
+        <v>121</v>
       </c>
       <c r="F117" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G117" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H117" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="I117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118">
         <v>1707</v>
       </c>
@@ -3538,20 +3940,23 @@
       <c r="C118">
         <v>138.6</v>
       </c>
-      <c r="E118" t="s">
-        <v>88</v>
+      <c r="D118" t="s">
+        <v>121</v>
       </c>
       <c r="F118" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G118" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H118" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="I118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119">
         <v>1854</v>
       </c>
@@ -3561,20 +3966,23 @@
       <c r="C119">
         <v>138.6</v>
       </c>
-      <c r="E119" t="s">
-        <v>88</v>
+      <c r="D119" t="s">
+        <v>121</v>
       </c>
       <c r="F119" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G119" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H119" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="I119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120">
         <v>1854</v>
       </c>
@@ -3584,20 +3992,23 @@
       <c r="C120">
         <v>135.9</v>
       </c>
-      <c r="E120" t="s">
-        <v>88</v>
+      <c r="D120" t="s">
+        <v>121</v>
       </c>
       <c r="F120" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G120" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H120" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="I120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121">
         <v>1944</v>
       </c>
@@ -3607,20 +4018,23 @@
       <c r="C121">
         <v>138.30000000000001</v>
       </c>
-      <c r="E121" t="s">
-        <v>88</v>
+      <c r="D121" t="s">
+        <v>121</v>
       </c>
       <c r="F121" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G121" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H121" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="I121" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122">
         <v>1946</v>
       </c>
@@ -3630,20 +4044,23 @@
       <c r="C122">
         <v>135.9</v>
       </c>
-      <c r="E122" t="s">
-        <v>88</v>
+      <c r="D122" t="s">
+        <v>121</v>
       </c>
       <c r="F122" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G122" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H122" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="I122" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123">
         <v>1968</v>
       </c>
@@ -3653,20 +4070,23 @@
       <c r="C123">
         <v>132.9</v>
       </c>
-      <c r="E123" t="s">
-        <v>89</v>
+      <c r="D123" t="s">
+        <v>121</v>
       </c>
       <c r="F123" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G123" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H123" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="I123" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124">
         <v>750</v>
       </c>
@@ -3676,20 +4096,23 @@
       <c r="C124">
         <v>140</v>
       </c>
-      <c r="E124" t="s">
-        <v>92</v>
+      <c r="D124" t="s">
+        <v>121</v>
       </c>
       <c r="F124" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G124" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H124" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="I124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125">
         <v>1293</v>
       </c>
@@ -3699,20 +4122,23 @@
       <c r="C125">
         <v>140</v>
       </c>
-      <c r="E125" t="s">
-        <v>93</v>
+      <c r="D125" t="s">
+        <v>121</v>
       </c>
       <c r="F125" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G125" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H125" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="I125" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126">
         <v>1703</v>
       </c>
@@ -3722,20 +4148,23 @@
       <c r="C126">
         <v>141.5</v>
       </c>
-      <c r="E126" t="s">
-        <v>94</v>
+      <c r="D126" t="s">
+        <v>121</v>
       </c>
       <c r="F126" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G126" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H126" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="I126" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127">
         <v>1923</v>
       </c>
@@ -3745,20 +4174,23 @@
       <c r="C127">
         <v>140</v>
       </c>
-      <c r="E127" t="s">
-        <v>94</v>
+      <c r="D127" t="s">
+        <v>121</v>
       </c>
       <c r="F127" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G127" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H127" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="I127" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128">
         <v>1780</v>
       </c>
@@ -3768,20 +4200,23 @@
       <c r="C128">
         <v>44.5</v>
       </c>
-      <c r="E128" t="s">
-        <v>97</v>
+      <c r="D128" t="s">
+        <v>121</v>
       </c>
       <c r="F128" t="s">
         <v>95</v>
       </c>
       <c r="G128" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H128" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="I128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129">
         <v>1893</v>
       </c>
@@ -3791,20 +4226,23 @@
       <c r="C129">
         <v>43.8</v>
       </c>
-      <c r="E129" t="s">
-        <v>98</v>
+      <c r="D129" t="s">
+        <v>121</v>
       </c>
       <c r="F129" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G129" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H129" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="I129" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130">
         <v>1918</v>
       </c>
@@ -3814,20 +4252,23 @@
       <c r="C130">
         <v>45</v>
       </c>
-      <c r="E130" t="s">
-        <v>97</v>
+      <c r="D130" t="s">
+        <v>121</v>
       </c>
       <c r="F130" t="s">
         <v>95</v>
       </c>
       <c r="G130" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H130" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="I130" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131">
         <v>1963</v>
       </c>
@@ -3837,20 +4278,23 @@
       <c r="C131">
         <v>44.5</v>
       </c>
-      <c r="E131" t="s">
-        <v>98</v>
+      <c r="D131" t="s">
+        <v>121</v>
       </c>
       <c r="F131" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G131" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H131" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="I131" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132">
         <v>1969</v>
       </c>
@@ -3860,20 +4304,23 @@
       <c r="C132">
         <v>43.8</v>
       </c>
-      <c r="E132" t="s">
-        <v>100</v>
+      <c r="D132" t="s">
+        <v>121</v>
       </c>
       <c r="F132" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G132" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H132" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="I132" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133">
         <v>950</v>
       </c>
@@ -3883,20 +4330,23 @@
       <c r="C133">
         <v>42</v>
       </c>
-      <c r="E133" t="s">
-        <v>101</v>
+      <c r="D133" t="s">
+        <v>121</v>
       </c>
       <c r="F133" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G133" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H133" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="I133" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134">
         <v>1340</v>
       </c>
@@ -3906,20 +4356,23 @@
       <c r="C134">
         <v>42</v>
       </c>
-      <c r="E134" t="s">
-        <v>102</v>
+      <c r="D134" t="s">
+        <v>121</v>
       </c>
       <c r="F134" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G134" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H134" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="I134" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135">
         <v>1635</v>
       </c>
@@ -3929,20 +4382,23 @@
       <c r="C135">
         <v>42</v>
       </c>
-      <c r="E135" t="s">
-        <v>103</v>
+      <c r="D135" t="s">
+        <v>121</v>
       </c>
       <c r="F135" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G135" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H135" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="I135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136">
         <v>1843</v>
       </c>
@@ -3952,20 +4408,23 @@
       <c r="C136">
         <v>42</v>
       </c>
-      <c r="E136" t="s">
-        <v>98</v>
+      <c r="D136" t="s">
+        <v>121</v>
       </c>
       <c r="F136" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G136" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H136" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="I136" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137">
         <v>1894</v>
       </c>
@@ -3975,20 +4434,23 @@
       <c r="C137">
         <v>42.5</v>
       </c>
-      <c r="E137" t="s">
-        <v>98</v>
+      <c r="D137" t="s">
+        <v>121</v>
       </c>
       <c r="F137" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G137" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H137" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="I137" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138">
         <v>1952</v>
       </c>
@@ -3998,20 +4460,23 @@
       <c r="C138">
         <v>42</v>
       </c>
-      <c r="E138" t="s">
-        <v>98</v>
+      <c r="D138" t="s">
+        <v>121</v>
       </c>
       <c r="F138" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G138" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H138" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="I138" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139">
         <v>1973</v>
       </c>
@@ -4021,20 +4486,23 @@
       <c r="C139">
         <v>43</v>
       </c>
-      <c r="E139" t="s">
-        <v>98</v>
+      <c r="D139" t="s">
+        <v>121</v>
       </c>
       <c r="F139" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G139" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H139" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="I139" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140">
         <v>2003</v>
       </c>
@@ -4044,20 +4512,23 @@
       <c r="C140">
         <v>42</v>
       </c>
-      <c r="E140" t="s">
-        <v>98</v>
+      <c r="D140" t="s">
+        <v>121</v>
       </c>
       <c r="F140" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G140" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H140" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="I140" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141">
         <v>1677</v>
       </c>
@@ -4067,20 +4538,23 @@
       <c r="C141">
         <v>39.5</v>
       </c>
-      <c r="E141" t="s">
-        <v>105</v>
+      <c r="D141" t="s">
+        <v>121</v>
       </c>
       <c r="F141" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G141" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="H141" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="I141" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142">
         <v>1763</v>
       </c>
@@ -4090,20 +4564,23 @@
       <c r="C142">
         <v>39.5</v>
       </c>
-      <c r="E142" t="s">
-        <v>105</v>
+      <c r="D142" t="s">
+        <v>121</v>
       </c>
       <c r="F142" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G142" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="H142" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="I142" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143">
         <v>1856</v>
       </c>
@@ -4113,20 +4590,23 @@
       <c r="C143">
         <v>39.5</v>
       </c>
-      <c r="E143" t="s">
-        <v>106</v>
+      <c r="D143" t="s">
+        <v>121</v>
       </c>
       <c r="F143" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="G143" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="H143" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="I143" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144">
         <v>1896</v>
       </c>
@@ -4137,22 +4617,25 @@
         <v>38.4</v>
       </c>
       <c r="D144" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="E144" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="F144" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="G144" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="H144" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="I144" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145">
         <v>1901</v>
       </c>
@@ -4162,20 +4645,23 @@
       <c r="C145">
         <v>40.5</v>
       </c>
-      <c r="E145" t="s">
-        <v>105</v>
+      <c r="D145" t="s">
+        <v>121</v>
       </c>
       <c r="F145" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G145" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="H145" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="I145" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146">
         <v>1901</v>
       </c>
@@ -4185,20 +4671,23 @@
       <c r="C146">
         <v>40</v>
       </c>
-      <c r="E146" t="s">
-        <v>105</v>
+      <c r="D146" t="s">
+        <v>121</v>
       </c>
       <c r="F146" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G146" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="H146" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="I146" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147">
         <v>1931</v>
       </c>
@@ -4208,20 +4697,23 @@
       <c r="C147">
         <v>40.200000000000003</v>
       </c>
-      <c r="E147" t="s">
-        <v>108</v>
+      <c r="D147" t="s">
+        <v>121</v>
       </c>
       <c r="F147" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G147" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="H147" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="I147" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148">
         <v>1960</v>
       </c>
@@ -4231,20 +4723,23 @@
       <c r="C148">
         <v>39.6</v>
       </c>
-      <c r="E148" t="s">
-        <v>108</v>
+      <c r="D148" t="s">
+        <v>121</v>
       </c>
       <c r="F148" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G148" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="H148" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="I148" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149">
         <v>1968</v>
       </c>
@@ -4254,20 +4749,23 @@
       <c r="C149">
         <v>39.5</v>
       </c>
-      <c r="E149" t="s">
-        <v>108</v>
+      <c r="D149" t="s">
+        <v>121</v>
       </c>
       <c r="F149" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G149" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="H149" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="I149" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150">
         <v>1989</v>
       </c>
@@ -4277,20 +4775,23 @@
       <c r="C150">
         <v>39.700000000000003</v>
       </c>
-      <c r="E150" t="s">
-        <v>108</v>
+      <c r="D150" t="s">
+        <v>121</v>
       </c>
       <c r="F150" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G150" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="H150" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="I150" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151">
         <v>1994</v>
       </c>
@@ -4300,20 +4801,23 @@
       <c r="C151">
         <v>39.799999999999997</v>
       </c>
-      <c r="E151" t="s">
-        <v>108</v>
+      <c r="D151" t="s">
+        <v>121</v>
       </c>
       <c r="F151" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G151" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="H151" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="I151" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152">
         <v>869</v>
       </c>
@@ -4324,22 +4828,25 @@
         <v>38.1</v>
       </c>
       <c r="D152" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="E152" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="G152" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="H152" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="I152" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153">
         <v>1454</v>
       </c>
@@ -4350,22 +4857,25 @@
         <v>38.1</v>
       </c>
       <c r="D153" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="E153" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="G153" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="H153" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="I153" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154">
         <v>1611</v>
       </c>
@@ -4376,22 +4886,25 @@
         <v>38.1</v>
       </c>
       <c r="D154" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="E154" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="F154" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G154" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="H154" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="I154" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155">
         <v>1616</v>
       </c>
@@ -4402,22 +4915,25 @@
         <v>38.1</v>
       </c>
       <c r="D155" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="E155" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="F155" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="G155" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="H155" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="I155" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156">
         <v>1646</v>
       </c>
@@ -4428,22 +4944,25 @@
         <v>38.1</v>
       </c>
       <c r="D156" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="E156" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="F156" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="G156" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="H156" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="I156" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157">
         <v>1678</v>
       </c>
@@ -4454,22 +4973,25 @@
         <v>38.1</v>
       </c>
       <c r="D157" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="E157" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="F157" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="G157" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="H157" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="I157" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158">
         <v>1717</v>
       </c>
@@ -4480,22 +5002,25 @@
         <v>38.1</v>
       </c>
       <c r="D158" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="E158" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="F158" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="G158" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="H158" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="I158" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159">
         <v>1736</v>
       </c>
@@ -4506,22 +5031,25 @@
         <v>38.1</v>
       </c>
       <c r="D159" t="s">
-        <v>21</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F159" t="s">
-        <v>95</v>
+        <v>121</v>
+      </c>
+      <c r="E159" t="s">
+        <v>19</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="G159" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="H159" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="I159" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160">
         <v>1770</v>
       </c>
@@ -4532,22 +5060,25 @@
         <v>38.1</v>
       </c>
       <c r="D160" t="s">
-        <v>21</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F160" t="s">
-        <v>95</v>
+        <v>121</v>
+      </c>
+      <c r="E160" t="s">
+        <v>19</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="G160" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="H160" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="I160" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161">
         <v>1793</v>
       </c>
@@ -4558,22 +5089,25 @@
         <v>37.200000000000003</v>
       </c>
       <c r="D161" t="s">
-        <v>20</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F161" t="s">
-        <v>95</v>
+        <v>121</v>
+      </c>
+      <c r="E161" t="s">
+        <v>18</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="G161" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="H161" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="I161" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162">
         <v>1835</v>
       </c>
@@ -4584,22 +5118,25 @@
         <v>37.700000000000003</v>
       </c>
       <c r="D162" t="s">
-        <v>21</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F162" t="s">
-        <v>95</v>
+        <v>121</v>
+      </c>
+      <c r="E162" t="s">
+        <v>19</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="G162" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="H162" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="I162" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163">
         <v>1861</v>
       </c>
@@ -4610,22 +5147,25 @@
         <v>38.1</v>
       </c>
       <c r="D163" t="s">
-        <v>21</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F163" t="s">
-        <v>95</v>
+        <v>121</v>
+      </c>
+      <c r="E163" t="s">
+        <v>19</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="G163" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="H163" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="I163" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164">
         <v>1897</v>
       </c>
@@ -4636,22 +5176,25 @@
         <v>38.200000000000003</v>
       </c>
       <c r="D164" t="s">
-        <v>21</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F164" t="s">
-        <v>95</v>
+        <v>121</v>
+      </c>
+      <c r="E164" t="s">
+        <v>19</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="G164" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="H164" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="I164" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165">
         <v>1897</v>
       </c>
@@ -4662,22 +5205,25 @@
         <v>37.799999999999997</v>
       </c>
       <c r="D165" t="s">
-        <v>20</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F165" t="s">
-        <v>95</v>
+        <v>121</v>
+      </c>
+      <c r="E165" t="s">
+        <v>18</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="G165" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="H165" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="I165" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166">
         <v>1898</v>
       </c>
@@ -4688,22 +5234,25 @@
         <v>38.299999999999997</v>
       </c>
       <c r="D166" t="s">
-        <v>21</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F166" t="s">
-        <v>95</v>
+        <v>121</v>
+      </c>
+      <c r="E166" t="s">
+        <v>19</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="G166" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="H166" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="I166" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167">
         <v>1915</v>
       </c>
@@ -4713,20 +5262,23 @@
       <c r="C167">
         <v>38.1</v>
       </c>
-      <c r="E167" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F167" t="s">
-        <v>95</v>
+      <c r="D167" t="s">
+        <v>121</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="G167" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="H167" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="I167" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168">
         <v>1936</v>
       </c>
@@ -4737,22 +5289,25 @@
         <v>37.700000000000003</v>
       </c>
       <c r="D168" t="s">
-        <v>21</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F168" t="s">
-        <v>95</v>
+        <v>121</v>
+      </c>
+      <c r="E168" t="s">
+        <v>19</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="G168" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="H168" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="I168" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169">
         <v>1937</v>
       </c>
@@ -4763,22 +5318,25 @@
         <v>37.799999999999997</v>
       </c>
       <c r="D169" t="s">
-        <v>21</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F169" t="s">
-        <v>95</v>
+        <v>121</v>
+      </c>
+      <c r="E169" t="s">
+        <v>19</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="G169" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="H169" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="I169" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170">
         <v>1938</v>
       </c>
@@ -4788,20 +5346,23 @@
       <c r="C170">
         <v>36</v>
       </c>
-      <c r="E170" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F170" t="s">
-        <v>95</v>
+      <c r="D170" t="s">
+        <v>121</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="G170" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="H170" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="I170" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171">
         <v>1938</v>
       </c>
@@ -4811,20 +5372,23 @@
       <c r="C171">
         <v>36.200000000000003</v>
       </c>
-      <c r="E171" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F171" t="s">
-        <v>95</v>
+      <c r="D171" t="s">
+        <v>121</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="G171" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="H171" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="I171" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172">
         <v>1938</v>
       </c>
@@ -4834,20 +5398,23 @@
       <c r="C172">
         <v>36.5</v>
       </c>
-      <c r="E172" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F172" t="s">
-        <v>95</v>
+      <c r="D172" t="s">
+        <v>121</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="G172" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="H172" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="I172" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173">
         <v>1968</v>
       </c>
@@ -4857,20 +5424,23 @@
       <c r="C173">
         <v>39.200000000000003</v>
       </c>
-      <c r="E173" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F173" t="s">
-        <v>95</v>
+      <c r="D173" t="s">
+        <v>121</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="G173" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="H173" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="I173" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174">
         <v>1978</v>
       </c>
@@ -4881,22 +5451,25 @@
         <v>38.1</v>
       </c>
       <c r="D174" t="s">
-        <v>21</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F174" t="s">
-        <v>95</v>
+        <v>121</v>
+      </c>
+      <c r="E174" t="s">
+        <v>19</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="G174" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="H174" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="I174" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175">
         <v>1981</v>
       </c>
@@ -4906,20 +5479,23 @@
       <c r="C175">
         <v>38.299999999999997</v>
       </c>
-      <c r="E175" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F175" t="s">
-        <v>95</v>
+      <c r="D175" t="s">
+        <v>121</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="G175" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="H175" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="I175" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176">
         <v>2005</v>
       </c>
@@ -4930,22 +5506,25 @@
         <v>38</v>
       </c>
       <c r="D176" t="s">
-        <v>21</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F176" t="s">
-        <v>95</v>
+        <v>121</v>
+      </c>
+      <c r="E176" t="s">
+        <v>19</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="G176" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="H176" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="I176" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177">
         <v>2011</v>
       </c>
@@ -4955,20 +5534,23 @@
       <c r="C177">
         <v>38.200000000000003</v>
       </c>
-      <c r="E177" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F177" t="s">
-        <v>95</v>
+      <c r="D177" t="s">
+        <v>121</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="G177" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="H177" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="I177" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178">
         <v>2011</v>
       </c>
@@ -4979,22 +5561,25 @@
         <v>38</v>
       </c>
       <c r="D178" t="s">
-        <v>14</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F178" t="s">
-        <v>95</v>
+        <v>121</v>
+      </c>
+      <c r="E178" t="s">
+        <v>12</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="G178" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="H178" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="I178" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179">
         <v>1896</v>
       </c>
@@ -5004,20 +5589,23 @@
       <c r="C179">
         <v>36</v>
       </c>
-      <c r="E179" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F179" t="s">
-        <v>95</v>
+      <c r="D179" t="s">
+        <v>121</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="G179" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="H179" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="I179" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180">
         <v>1923</v>
       </c>
@@ -5027,20 +5615,23 @@
       <c r="C180">
         <v>36</v>
       </c>
-      <c r="E180" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F180" t="s">
-        <v>95</v>
+      <c r="D180" t="s">
+        <v>121</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="G180" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="H180" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="I180" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181">
         <v>1943</v>
       </c>
@@ -5050,20 +5641,23 @@
       <c r="C181">
         <v>36</v>
       </c>
-      <c r="E181" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F181" t="s">
-        <v>95</v>
+      <c r="D181" t="s">
+        <v>121</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="G181" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="H181" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="I181" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182">
         <v>1961</v>
       </c>
@@ -5073,20 +5667,23 @@
       <c r="C182">
         <v>36</v>
       </c>
-      <c r="E182" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F182" t="s">
-        <v>95</v>
+      <c r="D182" t="s">
+        <v>121</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="G182" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="H182" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="I182" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183">
         <v>1982</v>
       </c>
@@ -5096,20 +5693,23 @@
       <c r="C183">
         <v>36</v>
       </c>
-      <c r="E183" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F183" t="s">
-        <v>95</v>
+      <c r="D183" t="s">
+        <v>121</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="G183" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="H183" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="I183" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184">
         <v>2008</v>
       </c>
@@ -5119,20 +5719,23 @@
       <c r="C184">
         <v>36</v>
       </c>
-      <c r="E184" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F184" t="s">
-        <v>95</v>
+      <c r="D184" t="s">
+        <v>121</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="G184" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="H184" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="I184" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185">
         <v>1677</v>
       </c>
@@ -5143,22 +5746,25 @@
         <v>33</v>
       </c>
       <c r="D185" t="s">
-        <v>20</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F185" t="s">
-        <v>95</v>
+        <v>121</v>
+      </c>
+      <c r="E185" t="s">
+        <v>18</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="G185" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="H185" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="I185" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186">
         <v>1909</v>
       </c>
@@ -5168,20 +5774,23 @@
       <c r="C186">
         <v>35</v>
       </c>
-      <c r="E186" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F186" t="s">
-        <v>95</v>
+      <c r="D186" t="s">
+        <v>121</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="G186" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="H186" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="I186" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187">
         <v>1953</v>
       </c>
@@ -5192,22 +5801,25 @@
         <v>33.6</v>
       </c>
       <c r="D187" t="s">
-        <v>20</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F187" t="s">
-        <v>95</v>
+        <v>121</v>
+      </c>
+      <c r="E187" t="s">
+        <v>18</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="G187" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="H187" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="I187" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188">
         <v>1972</v>
       </c>
@@ -5217,20 +5829,23 @@
       <c r="C188">
         <v>33.1</v>
       </c>
-      <c r="E188" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F188" t="s">
-        <v>95</v>
+      <c r="D188" t="s">
+        <v>121</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="G188" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="H188" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="I188" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189">
         <v>2011</v>
       </c>
@@ -5240,17 +5855,275 @@
       <c r="C189">
         <v>35.6</v>
       </c>
-      <c r="E189" s="1" t="s">
+      <c r="D189" t="s">
+        <v>121</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G189" t="s">
+        <v>93</v>
+      </c>
+      <c r="H189" t="s">
+        <v>117</v>
+      </c>
+      <c r="I189" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" s="2">
+        <v>1505</v>
+      </c>
+      <c r="B190">
+        <v>79.8</v>
+      </c>
+      <c r="C190">
+        <v>83.5</v>
+      </c>
+      <c r="D190" t="s">
+        <v>126</v>
+      </c>
+      <c r="F190" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F189" t="s">
-        <v>95</v>
-      </c>
-      <c r="G189" t="s">
-        <v>119</v>
-      </c>
-      <c r="H189" t="s">
-        <v>68</v>
+      <c r="G190" t="s">
+        <v>124</v>
+      </c>
+      <c r="H190" t="s">
+        <v>134</v>
+      </c>
+      <c r="I190" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" s="2">
+        <v>1555</v>
+      </c>
+      <c r="B191">
+        <v>75</v>
+      </c>
+      <c r="C191">
+        <v>76</v>
+      </c>
+      <c r="D191" t="s">
+        <v>126</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G191" t="s">
+        <v>124</v>
+      </c>
+      <c r="H191" t="s">
+        <v>125</v>
+      </c>
+      <c r="I191" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" s="2">
+        <v>1714</v>
+      </c>
+      <c r="B192">
+        <v>88.2</v>
+      </c>
+      <c r="C192">
+        <v>91.1</v>
+      </c>
+      <c r="D192" t="s">
+        <v>126</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G192" t="s">
+        <v>124</v>
+      </c>
+      <c r="H192" t="s">
+        <v>136</v>
+      </c>
+      <c r="I192" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" s="2">
+        <v>1803</v>
+      </c>
+      <c r="B193">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="C193">
+        <v>79.7</v>
+      </c>
+      <c r="D193" t="s">
+        <v>126</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G193" t="s">
+        <v>124</v>
+      </c>
+      <c r="H193" t="s">
+        <v>134</v>
+      </c>
+      <c r="I193" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" s="2">
+        <v>1905</v>
+      </c>
+      <c r="B194">
+        <v>75.5</v>
+      </c>
+      <c r="C194">
+        <v>77.3</v>
+      </c>
+      <c r="D194" t="s">
+        <v>126</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G194" t="s">
+        <v>124</v>
+      </c>
+      <c r="H194" t="s">
+        <v>125</v>
+      </c>
+      <c r="I194" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" s="2">
+        <v>1934</v>
+      </c>
+      <c r="B195">
+        <v>85.5</v>
+      </c>
+      <c r="C195">
+        <v>87.5</v>
+      </c>
+      <c r="D195" t="s">
+        <v>126</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G195" t="s">
+        <v>124</v>
+      </c>
+      <c r="H195" t="s">
+        <v>135</v>
+      </c>
+      <c r="I195" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" s="2">
+        <v>1950</v>
+      </c>
+      <c r="B196">
+        <v>93.8</v>
+      </c>
+      <c r="C196">
+        <v>95.5</v>
+      </c>
+      <c r="D196" t="s">
+        <v>126</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G196" t="s">
+        <v>124</v>
+      </c>
+      <c r="H196" t="s">
+        <v>136</v>
+      </c>
+      <c r="I196" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B197">
+        <v>84.5</v>
+      </c>
+      <c r="C197">
+        <v>85.9</v>
+      </c>
+      <c r="D197" t="s">
+        <v>126</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G197" t="s">
+        <v>124</v>
+      </c>
+      <c r="H197" t="s">
+        <v>135</v>
+      </c>
+      <c r="I197" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198" s="2">
+        <v>1833</v>
+      </c>
+      <c r="B198">
+        <v>85</v>
+      </c>
+      <c r="C198">
+        <v>86.1</v>
+      </c>
+      <c r="D198" t="s">
+        <v>126</v>
+      </c>
+      <c r="F198" s="2"/>
+      <c r="G198" t="s">
+        <v>124</v>
+      </c>
+      <c r="H198" t="s">
+        <v>135</v>
+      </c>
+      <c r="I198" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" s="2">
+        <v>1255</v>
+      </c>
+      <c r="B199">
+        <v>85.5</v>
+      </c>
+      <c r="C199">
+        <v>87.5</v>
+      </c>
+      <c r="D199" t="s">
+        <v>126</v>
+      </c>
+      <c r="G199" t="s">
+        <v>124</v>
+      </c>
+      <c r="H199" t="s">
+        <v>135</v>
+      </c>
+      <c r="I199" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
